--- a/PS16JuvChinookWBSI.xlsx
+++ b/PS16JuvChinookWBSI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\JuvChinook-Data-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PS16JuvChinookSI" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>130-24892A</t>
   </si>
   <si>
-    <t>16SEL-TW_Dfp01r2</t>
-  </si>
-  <si>
     <t>130-24893A</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>SampleID</t>
+  </si>
+  <si>
+    <t>16EL-TW_Dfp01r2</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1685,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1717,13 +1717,13 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1755,13 +1755,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1793,13 +1793,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1831,13 +1831,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1869,13 +1869,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1907,13 +1907,13 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1945,13 +1945,13 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
